--- a/excel/t_stadium_rule_Server..xlsx
+++ b/excel/t_stadium_rule_Server..xlsx
@@ -15,144 +15,25 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Admin</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="2"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0：可编辑球场（初始球场）
-1：不可编辑球场（收费球场）</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="2"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-1-进攻
-2-防守</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Admin</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="2"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0-顶棚
-1-草皮
-2-外围</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="2"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-0-已解锁
-1-未解锁</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>stadium_id</t>
   </si>
   <si>
-    <t>type</t>
+    <t>is_editable</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>roof_id</t>
-  </si>
-  <si>
     <t>turf_id</t>
   </si>
   <si>
     <t>side_id</t>
   </si>
   <si>
-    <t>skill_type</t>
-  </si>
-  <si>
-    <t>skill_bonus</t>
+    <t>path</t>
   </si>
   <si>
     <t>int_key</t>
@@ -167,85 +48,124 @@
     <t>球场id</t>
   </si>
   <si>
-    <t>类型</t>
+    <t>0-可编辑，1-不可</t>
   </si>
   <si>
     <t>名称</t>
   </si>
   <si>
-    <t>顶棚</t>
-  </si>
-  <si>
     <t>草皮</t>
   </si>
   <si>
     <t>外围</t>
   </si>
   <si>
-    <t>技能类型</t>
-  </si>
-  <si>
-    <t>技能加点</t>
-  </si>
-  <si>
-    <t>GALA Stadium</t>
+    <t>路径</t>
+  </si>
+  <si>
+    <t>Alexandra</t>
+  </si>
+  <si>
+    <t>Stadium_1</t>
+  </si>
+  <si>
+    <t>Edgware</t>
+  </si>
+  <si>
+    <t>Stadium_2</t>
+  </si>
+  <si>
+    <t>Woolwich</t>
+  </si>
+  <si>
+    <t>Stadium_3</t>
+  </si>
+  <si>
+    <t>Stanmore</t>
+  </si>
+  <si>
+    <t>Stadium_4</t>
+  </si>
+  <si>
+    <t>Victoria</t>
+  </si>
+  <si>
+    <t>Stadium_5</t>
   </si>
   <si>
     <t>City of Manchester Stadium</t>
   </si>
   <si>
+    <t>Stadium_Licence_1</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>lock</t>
+    <t>Stadium_</t>
   </si>
   <si>
     <t>物品id</t>
   </si>
   <si>
-    <t>是否解锁</t>
-  </si>
-  <si>
-    <t>Alexandra</t>
-  </si>
-  <si>
-    <t>Edgware</t>
-  </si>
-  <si>
-    <t>Woolwich</t>
-  </si>
-  <si>
-    <t>Stanmore</t>
-  </si>
-  <si>
-    <t>Victoria</t>
-  </si>
-  <si>
-    <t>blank</t>
-  </si>
-  <si>
-    <t>horizontal</t>
-  </si>
-  <si>
-    <t>vertical</t>
-  </si>
-  <si>
-    <t>cross</t>
-  </si>
-  <si>
-    <t>grey</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>orange</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>blue</t>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>Turf_1</t>
+  </si>
+  <si>
+    <t>Horizontal</t>
+  </si>
+  <si>
+    <t>Turf_2</t>
+  </si>
+  <si>
+    <t>Vertical</t>
+  </si>
+  <si>
+    <t>Turf_3</t>
+  </si>
+  <si>
+    <t>Cross</t>
+  </si>
+  <si>
+    <t>Turf_4</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Turf_5</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>Side_1</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Side_2</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Side_3</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Side_4</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Side_5</t>
   </si>
 </sst>
 </file>
@@ -253,12 +173,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,39 +192,71 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="黑体"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -314,8 +266,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -323,44 +276,15 @@
     <font>
       <u val="single"/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -375,24 +299,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -401,21 +316,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -429,39 +329,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="宋体"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill/>
     </fill>
@@ -654,14 +545,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -765,12 +650,6 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-    </border>
   </borders>
   <cellStyleXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -802,7 +681,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -814,88 +693,88 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="6" applyNumberFormat="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
@@ -910,10 +789,10 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
@@ -922,60 +801,48 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1369,430 +1236,377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="topLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-    <col min="9" max="9" width="17.75" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="16.5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5">
-      <c r="A2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="10"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5">
-      <c r="A3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5">
+      <c r="A4" s="3">
+        <v>3401</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="D4" s="3">
+        <v>3504</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3601</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.5">
+      <c r="A5" s="3">
+        <v>3402</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="D5" s="3">
+        <v>3504</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3601</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="10"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.5">
-      <c r="A4" s="4">
-        <v>3001</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="16.5">
+      <c r="A6" s="3">
+        <v>3403</v>
+      </c>
+      <c r="B6" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="6">
-        <v>3401</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D6" s="3">
         <v>3504</v>
       </c>
-      <c r="F4" s="6">
+      <c r="E6" s="3">
         <v>3601</v>
       </c>
-      <c r="G4" s="9">
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5">
+      <c r="A7" s="3">
+        <v>3404</v>
+      </c>
+      <c r="B7" s="1">
         <v>0</v>
       </c>
-      <c r="H4" s="5">
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3504</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3601</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5">
+      <c r="A8" s="3">
+        <v>3405</v>
+      </c>
+      <c r="B8" s="1">
         <v>0</v>
       </c>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5">
-      <c r="A5" s="4">
-        <v>3002</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3504</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3601</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5">
+      <c r="A9" s="3">
+        <v>3451</v>
+      </c>
+      <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>10</v>
-      </c>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" ht="16.5">
-      <c r="I6" s="11"/>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="B21" sqref="B21"/>
+      <selection pane="topLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="7.875" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14">
+    <row r="1" spans="1:3" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="14">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="14.5">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5">
-      <c r="A4" s="4">
-        <v>3401</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="16.5">
-      <c r="A5" s="4">
-        <v>3402</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="16.5">
-      <c r="A6" s="4">
-        <v>3403</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5">
-      <c r="A7" s="4">
-        <v>3404</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="16.5">
-      <c r="A8" s="4">
-        <v>3405</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5">
+      <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="16.5">
-      <c r="A9" s="4">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5">
+      <c r="A4" s="2">
         <v>3501</v>
       </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.5">
-      <c r="A10" s="4">
+      <c r="C4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5">
+      <c r="A5" s="2">
         <v>3502</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.5">
-      <c r="A11" s="4">
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5">
+      <c r="A6" s="2">
         <v>3503</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="16.5">
-      <c r="A12" s="4">
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5">
+      <c r="A7" s="2">
         <v>3504</v>
       </c>
-      <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.5">
-      <c r="A13" s="4">
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5">
+      <c r="A8" s="2">
+        <v>3505</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5">
+      <c r="A9" s="2">
         <v>3601</v>
       </c>
-      <c r="B13" s="5">
-        <v>2</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5">
-      <c r="A14" s="4">
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5">
+      <c r="A10" s="2">
         <v>3602</v>
       </c>
-      <c r="B14" s="5">
-        <v>2</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="16.5">
-      <c r="A15" s="4">
+      <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5">
+      <c r="A11" s="2">
         <v>3603</v>
       </c>
-      <c r="B15" s="5">
-        <v>2</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5">
-      <c r="A16" s="4">
+      <c r="B11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5">
+      <c r="A12" s="2">
         <v>3604</v>
       </c>
-      <c r="B16" s="5">
-        <v>2</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="16.5">
-      <c r="A17" s="4">
+      <c r="B12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5">
+      <c r="A13" s="2">
         <v>3605</v>
       </c>
-      <c r="B17" s="5">
-        <v>2</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="14">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="B13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="14">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
     </row>
   </sheetData>
   <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>